--- a/vignettes/vaf_0.05_all.xlsx
+++ b/vignettes/vaf_0.05_all.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">comparison_name</t>
   </si>
@@ -56,6 +56,9 @@
     <t xml:space="preserve">n_vars_in_s1pass_not_in_s2</t>
   </si>
   <si>
+    <t xml:space="preserve">n_vars_in_s1pass_in_cds_not_in_s2</t>
+  </si>
+  <si>
     <t xml:space="preserve">n_vars_in_s1fail_not_in_s2</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
     <t xml:space="preserve">n_vars_in_s2pass_not_in_s1</t>
   </si>
   <si>
+    <t xml:space="preserve">n_vars_in_s2pass_in_cds_not_in_s1</t>
+  </si>
+  <si>
     <t xml:space="preserve">n_vars_in_s2fail_not_in_s1</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
     <t xml:space="preserve">frac_concordance_raw</t>
   </si>
   <si>
+    <t xml:space="preserve">frac_concordance_threshold</t>
+  </si>
+  <si>
     <t xml:space="preserve">frac_concordance_corrected</t>
   </si>
   <si>
@@ -116,6 +125,9 @@
     <t xml:space="preserve">0.79</t>
   </si>
   <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.071</t>
   </si>
   <si>
@@ -140,6 +152,9 @@
     <t xml:space="preserve">0.819</t>
   </si>
   <si>
+    <t xml:space="preserve">0.998</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.108</t>
   </si>
   <si>
@@ -161,6 +176,9 @@
     <t xml:space="preserve">0.807</t>
   </si>
   <si>
+    <t xml:space="preserve">0.979</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.027</t>
   </si>
   <si>
@@ -180,6 +198,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99</t>
   </si>
   <si>
     <t xml:space="preserve">0.055</t>
@@ -608,16 +629,25 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
         <v>540</v>
@@ -653,60 +683,69 @@
         <v>57</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>27</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>77</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>56</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>21</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>2060</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>2060</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>1820</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>1836</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>240</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>224</v>
       </c>
-      <c r="Y2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>33</v>
-      </c>
       <c r="AA2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC2" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
         <v>625</v>
@@ -742,60 +781,69 @@
         <v>56</v>
       </c>
       <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
         <v>49</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>91</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>46</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>45</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>2060</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>2060</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>1972</v>
       </c>
-      <c r="V3" t="n">
+      <c r="X3" t="n">
         <v>1949</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Y3" t="n">
         <v>88</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>111</v>
       </c>
-      <c r="Y3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>41</v>
-      </c>
       <c r="AA3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AC3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
         <v>535</v>
@@ -831,60 +879,69 @@
         <v>51</v>
       </c>
       <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
         <v>3</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>92</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>62</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="n">
         <v>30</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>2060</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>2060</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>600</v>
       </c>
-      <c r="V4" t="n">
+      <c r="X4" t="n">
         <v>1372</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Y4" t="n">
         <v>1460</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>688</v>
       </c>
-      <c r="Y4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>48</v>
-      </c>
       <c r="AA4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AB4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AC4" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
         <v>592</v>
@@ -920,49 +977,58 @@
         <v>51</v>
       </c>
       <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
         <v>28</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>100</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>59</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
         <v>41</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>2060</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>2060</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>1511</v>
       </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
         <v>1689</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
         <v>549</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>371</v>
       </c>
-      <c r="Y5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>55</v>
-      </c>
       <c r="AA5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AB5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AC5" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
